--- a/excel/F法宝模板表.xlsx
+++ b/excel/F法宝模板表.xlsx
@@ -43,11 +43,14 @@
   <connection id="7" name="RelicTemplate_table" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\RelicTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="8" name="RelicTemplate_table1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\RelicTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,40 +92,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使你的血上限+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使你的血上限+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果回合结束没有护甲，获得6点护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一回合内出5张攻击牌 额外造成7点群体伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
   </si>
 </sst>
 </file>
@@ -183,7 +160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,12 +176,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -232,7 +221,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema3">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="LocalDatas">
         <xsd:complexType>
@@ -250,6 +239,8 @@
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nDataDiff" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nId" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nType" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nVal" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nVal2" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="szName" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="szDesc" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="szImg" form="unqualified"/>
@@ -267,36 +258,42 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="7" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
+  <Map ID="8" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="8" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:H5" tableType="xml" totalsRowShown="0" connectionId="7">
-  <autoFilter ref="B1:H5"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:J5" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="B1:J5"/>
+  <tableColumns count="9">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
-      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/nDataExcept" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/nDataExcept" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="nDataDiff" name="nDataDiff">
-      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/nDataDiff" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="nId" name="ID" dataDxfId="3">
-      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/nId" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="13" uniqueName="nType" name="法宝类型" dataDxfId="2">
-      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/nType" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="11" uniqueName="szName" name="名字" dataDxfId="1">
-      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/szName" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/nDataDiff" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="nId" name="ID" dataDxfId="5">
+      <xmlColumnPr mapId="8" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/nId" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="nType" name="法宝类型" dataDxfId="4">
+      <xmlColumnPr mapId="8" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/nType" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="nVal" name="列1" dataDxfId="2">
+      <xmlColumnPr mapId="8" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/nVal" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="nVal2" name="列2" dataDxfId="1">
+      <xmlColumnPr mapId="8" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/nVal2" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="szName" name="名字" dataDxfId="3">
+      <xmlColumnPr mapId="8" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/szName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="12" uniqueName="szDesc" name="描述" dataDxfId="0">
-      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/szDesc" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/szDesc" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="szImg" name="图片名">
-      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/szImg" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/szImg" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -590,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H5"/>
+  <dimension ref="B1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -601,13 +598,13 @@
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="5" max="7" width="10.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="40.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -621,73 +618,110 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>"如果回合结束没有护甲，获得"&amp;F2&amp;"点护甲"</f>
+        <v>如果回合结束没有护甲，获得6点护甲</v>
+      </c>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>"一回合内出"&amp;F3&amp;"张攻击牌 额外造成"&amp;G3&amp;"点群体伤害"</f>
+        <v>一回合内出5张攻击牌 额外造成7点群体伤害</v>
+      </c>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="I4" s="5" t="str">
+        <f>"使你的血上限+"&amp;F4</f>
+        <v>使你的血上限+6</v>
+      </c>
+      <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="I5" s="5" t="str">
+        <f>"使你的血上限+"&amp;F5</f>
+        <v>使你的血上限+10</v>
+      </c>
+      <c r="J5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/F法宝模板表.xlsx
+++ b/excel/F法宝模板表.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="3105"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -50,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,12 +96,16 @@
   <si>
     <t>列2</t>
   </si>
+  <si>
+    <t>huzangfuyin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,25 +185,25 @@
   <dxfs count="6">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -280,13 +279,13 @@
     <tableColumn id="13" uniqueName="nType" name="法宝类型" dataDxfId="4">
       <xmlColumnPr mapId="8" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/nType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="nVal" name="列1" dataDxfId="2">
+    <tableColumn id="4" uniqueName="nVal" name="列1" dataDxfId="3">
       <xmlColumnPr mapId="8" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/nVal" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="nVal2" name="列2" dataDxfId="1">
+    <tableColumn id="5" uniqueName="nVal2" name="列2" dataDxfId="2">
       <xmlColumnPr mapId="8" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/nVal2" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="szName" name="名字" dataDxfId="3">
+    <tableColumn id="11" uniqueName="szName" name="名字" dataDxfId="1">
       <xmlColumnPr mapId="8" xpath="/LocalDatas/LocalData/g_RelicTemplate/entry/szName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="12" uniqueName="szDesc" name="描述" dataDxfId="0">
@@ -343,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,10 +374,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,7 +408,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,14 +583,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
@@ -604,7 +601,7 @@
     <col min="10" max="10" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -633,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="4">
@@ -653,9 +650,11 @@
         <f>"如果回合结束没有护甲，获得"&amp;F2&amp;"点护甲"</f>
         <v>如果回合结束没有护甲，获得6点护甲</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="4">
@@ -679,7 +678,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4">
@@ -701,7 +700,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4">
@@ -734,19 +733,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="2"/>
       <c r="E2" s="2"/>
       <c r="I2" s="2"/>
@@ -759,12 +758,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
